--- a/data/trans_dic/P02E$ssociales-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -695,17 +696,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 4,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,28</t>
+          <t>0,0; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +716,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
     </row>
@@ -800,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -820,7 +821,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,12 +831,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
     </row>
@@ -905,17 +906,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,8</t>
+          <t>1,41; 6,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,33</t>
+          <t>0,71; 7,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,69</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,73</t>
+          <t>1,01; 4,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,43</t>
+          <t>0,51; 4,73</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1016,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,16</t>
+          <t>0,56; 3,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,27 +1036,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,01</t>
+          <t>0,5; 2,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,29</t>
+          <t>0,78; 4,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,45</t>
+          <t>0,68; 2,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,8</t>
+          <t>0,73; 3,04</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1131,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,93</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,12 +1146,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,14</t>
+          <t>0,55; 3,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,18</t>
+          <t>0,38; 3,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1161,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,12</t>
+          <t>0,61; 2,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,78</t>
+          <t>0,49; 2,82</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1241,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,1</t>
+          <t>0,0; 57,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,18</t>
+          <t>0,0; 36,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1255,7 +1256,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,76</t>
+          <t>1,08; 5,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,17 +1266,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,44</t>
+          <t>0,35; 3,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,34</t>
+          <t>1,4; 5,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,63</t>
+          <t>0,94; 2,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,53</t>
+          <t>0,7; 2,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,16</t>
+          <t>0,18; 1,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,07</t>
+          <t>0,81; 2,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,65</t>
+          <t>0,48; 1,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,79</t>
+          <t>0,17; 0,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,94</t>
+          <t>1,03; 1,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,73</t>
+          <t>0,69; 1,69</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es profesional de los servicios Sociales o sanitarios</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1935</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4409</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6851</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4166</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1943</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7070</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4907</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4432</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7676</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1994</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2133</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5820</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6655</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5796</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6202</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7237</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4892</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2745; 12091</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>999; 9966</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5465</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5806</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3081; 13937</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1000; 9201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4931</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5104</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6366</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10035</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8514</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4711</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1928; 11455</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7585</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2010; 11560</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2425; 12978</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4858</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5023; 18013</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4131; 17162</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7098</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4877</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2023</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7008</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6517</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1969; 11603</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>941; 8460</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3019; 13970</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1876; 10882</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7392</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8377</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1906</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4678</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7078</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>890; 7965</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3082; 14834</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>898; 8146</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4116; 16323</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7214</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>16241</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10440</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19675</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>10536</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6696</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>35916</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>20975</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5789</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9290; 24976</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5303; 18678</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1789; 10673</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>12311; 30680</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5335; 19497</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2843; 14097</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25716; 49589</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>12832; 31479</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P02E$ssociales-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
